--- a/Comp Off Oct.xlsx
+++ b/Comp Off Oct.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rashmi.n\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rashmi.n\RandR\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E26A593-4EA5-478A-9323-008E899EA578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5835E687-ADA3-4478-A818-435D24C5F503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{13F32721-5240-41C1-8A17-A53119AB2F81}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>EMPLOYEE NUMBER</t>
   </si>
@@ -64,13 +64,28 @@
   </si>
   <si>
     <t>PRANJAL GOYAL</t>
+  </si>
+  <si>
+    <t>2019-10-15</t>
+  </si>
+  <si>
+    <t>2019-10-16</t>
+  </si>
+  <si>
+    <t>2019-10-10</t>
+  </si>
+  <si>
+    <t>OFFDAY</t>
+  </si>
+  <si>
+    <t>2019-11-21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +105,12 @@
       <color theme="1"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -132,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -144,6 +165,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -460,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25281DC8-A35E-44A6-BBFE-FC395895C621}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,10 +497,10 @@
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -495,8 +519,11 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2373950</v>
       </c>
@@ -509,14 +536,17 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4">
-        <v>20191007</v>
-      </c>
-      <c r="F2" s="4">
-        <v>20191007</v>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2370669</v>
       </c>
@@ -529,38 +559,24 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4">
-        <v>20191017</v>
-      </c>
-      <c r="F3" s="4">
-        <v>20191017</v>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E80FA020BD85CC42B3F636421967D93F" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cceef2dff41ebd475b9f9854b13537f4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="87937971-51c5-44df-b012-3a87066563fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd6e91edc67ab4a91fb32a832d568690" ns1:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -741,25 +757,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E800D065-C123-4D28-B86F-EE6C5D246223}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1BF305A-6854-4539-B676-63D00258AE2A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DF9B8B4-CAA3-4F1E-BC7A-E6FD4D8ECE1F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -776,4 +792,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1BF305A-6854-4539-B676-63D00258AE2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E800D065-C123-4D28-B86F-EE6C5D246223}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>